--- a/foo.xlsx
+++ b/foo.xlsx
@@ -40,21 +40,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts/>
-  <fonts count="3">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -63,7 +49,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none">
         <bgColor indexed="64"/>
@@ -74,27 +60,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -106,14 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,7 +355,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="1,1000000000000000E+01" customWidth="true"/>
+    <col min="2" max="2" width="1.1000000000000000E+01" customWidth="true"/>
     <col min="3" max="3" width="9.10"/>
   </cols>
   <sheetData>
@@ -406,10 +368,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="2">
+      <c r="B3" s="0">
         <v>44561</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="0">
         <v>0.2488078703703704</v>
       </c>
     </row>

--- a/foo.xlsx
+++ b/foo.xlsx
@@ -73,9 +73,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,10 +369,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="0">
+      <c r="B3" s="2">
         <v>44561</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3" s="2">
         <v>0.2488078703703704</v>
       </c>
     </row>

--- a/foo.xlsx
+++ b/foo.xlsx
@@ -73,10 +73,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,7 +373,7 @@
       <c r="B3" s="2">
         <v>44561</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0.2488078703703704</v>
       </c>
     </row>
